--- a/Tasks-pending.xlsx
+++ b/Tasks-pending.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DC2E51-9899-4BA9-AE79-F99CA8478517}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9414F1-9EB4-492A-885A-426D9E070652}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>S.No</t>
   </si>
@@ -44,6 +44,45 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>TREES</t>
+  </si>
+  <si>
+    <t>Leetcode</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>BottomView</t>
+  </si>
+  <si>
+    <t>TopView</t>
+  </si>
+  <si>
+    <t>BoundryView</t>
+  </si>
+  <si>
+    <t>Path to Node</t>
+  </si>
+  <si>
+    <t>vertical-order traversal for leetcode</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>Spiral traversal for leetcode</t>
+  </si>
+  <si>
+    <t>Max path sum</t>
   </si>
 </sst>
 </file>
@@ -373,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,7 +423,7 @@
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,26 +440,106 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D10" s="1">
         <v>44716</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E10" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44730</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44730</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{EF40BF04-458C-47D1-83D7-A5B8BCC1290D}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{EF40BF04-458C-47D1-83D7-A5B8BCC1290D}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{9F4564C7-9880-4175-90BD-6D84E4C6AFA8}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{9062391E-3C8A-4C6F-88EB-0063966FDEA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks-pending.xlsx
+++ b/Tasks-pending.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9414F1-9EB4-492A-885A-426D9E070652}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978945C7-24FB-471A-9A57-D93F0D629B72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>S.No</t>
   </si>
@@ -83,6 +83,42 @@
   </si>
   <si>
     <t>Max path sum</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/flattening-a-linked-list/1</t>
+  </si>
+  <si>
+    <t>Pneding</t>
+  </si>
+  <si>
+    <t>Falttening a linkedlist</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/</t>
+  </si>
+  <si>
+    <t>3sum</t>
+  </si>
+  <si>
+    <t>(array/LL)</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-sorted-array/</t>
+  </si>
+  <si>
+    <t>Araay-merge 2 araays</t>
+  </si>
+  <si>
+    <t>Inversions in array</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/count-inversions_615</t>
   </si>
 </sst>
 </file>
@@ -412,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,11 +571,108 @@
         <v>4</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44756</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44756</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44032</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44762</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" xr:uid="{EF40BF04-458C-47D1-83D7-A5B8BCC1290D}"/>
     <hyperlink ref="C11" r:id="rId2" xr:uid="{9F4564C7-9880-4175-90BD-6D84E4C6AFA8}"/>
     <hyperlink ref="C12" r:id="rId3" xr:uid="{9062391E-3C8A-4C6F-88EB-0063966FDEA1}"/>
+    <hyperlink ref="C18" r:id="rId4" xr:uid="{A7251DCE-DA0F-42E1-8CCE-028A4C2D1E46}"/>
+    <hyperlink ref="C19" r:id="rId5" xr:uid="{C705ABA6-48F3-492B-A898-ACAD30FAFB35}"/>
+    <hyperlink ref="C23" r:id="rId6" xr:uid="{1E455A67-EFE5-4EEB-91F4-078BAAA875FA}"/>
+    <hyperlink ref="C24" r:id="rId7" xr:uid="{7260CE1D-9A68-49C0-897F-4BFE40F4B584}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks-pending.xlsx
+++ b/Tasks-pending.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978945C7-24FB-471A-9A57-D93F0D629B72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6204EB-C027-40A2-9094-8134313F3608}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>S.No</t>
   </si>
@@ -119,6 +120,33 @@
   </si>
   <si>
     <t>https://www.codingninjas.com/codestudio/problems/count-inversions_615</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-pairs/submissions/</t>
+  </si>
+  <si>
+    <t>Reverse pairs</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-median-from-data-stream/</t>
+  </si>
+  <si>
+    <t>Median of data stream</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>CodingNinja</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/sort-a-stack_985275?topList=striver-sde-sheet-problems&amp;utm_source=striver&amp;utm_medium=website</t>
+  </si>
+  <si>
+    <t>Sort a stack</t>
   </si>
 </sst>
 </file>
@@ -448,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="79" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,6 +692,76 @@
         <v>31</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44767</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44757</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44768</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" xr:uid="{EF40BF04-458C-47D1-83D7-A5B8BCC1290D}"/>
@@ -673,6 +771,9 @@
     <hyperlink ref="C19" r:id="rId5" xr:uid="{C705ABA6-48F3-492B-A898-ACAD30FAFB35}"/>
     <hyperlink ref="C23" r:id="rId6" xr:uid="{1E455A67-EFE5-4EEB-91F4-078BAAA875FA}"/>
     <hyperlink ref="C24" r:id="rId7" xr:uid="{7260CE1D-9A68-49C0-897F-4BFE40F4B584}"/>
+    <hyperlink ref="C25" r:id="rId8" xr:uid="{47123C07-5777-4CDB-85BD-529274A1D75F}"/>
+    <hyperlink ref="C31" r:id="rId9" xr:uid="{FD705180-DE0D-4FBF-95B1-4BC1D6CC8A91}"/>
+    <hyperlink ref="C35" r:id="rId10" xr:uid="{D767D0EF-35BC-4AA9-AA31-F41D85DDC0E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
